--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Review pelaksanaan audit sesuai jadwal</t>
   </si>
   <si>
-    <t>Review visit outlet distribution sales &amp; daily call telemarketing</t>
+    <t>Visit outlet distribution sales</t>
   </si>
   <si>
     <t>100</t>
@@ -66,7 +66,10 @@
     <t>Review audit buku customer &amp; buku COD</t>
   </si>
   <si>
-    <t>Follow up kasus CS Tegal &amp; CV Top Semarang</t>
+    <t>Review pelaksanaan udit aktiva</t>
+  </si>
+  <si>
+    <t>Follow up kasus CV Maju Surabaya, CS Tegal &amp; CV Top Semarang</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,7 @@
         <v>2024</v>
       </c>
       <c r="B2" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -456,7 +459,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -470,7 +473,7 @@
         <v>2024</v>
       </c>
       <c r="B4" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -484,7 +487,7 @@
         <v>2024</v>
       </c>
       <c r="B5" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -498,16 +501,13 @@
         <v>2024</v>
       </c>
       <c r="B6" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,10 +515,10 @@
         <v>2024</v>
       </c>
       <c r="B7" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -532,10 +532,10 @@
         <v>2024</v>
       </c>
       <c r="B8" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -549,15 +549,32 @@
         <v>2024</v>
       </c>
       <c r="B9" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
